--- a/stud/ChristinaPildner/DA-Unterlagen/Zeiterfassung.xlsx
+++ b/stud/ChristinaPildner/DA-Unterlagen/Zeiterfassung.xlsx
@@ -30,10 +30,10 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>PQL Paper lesen</t>
-  </si>
-  <si>
     <t>Dauer</t>
+  </si>
+  <si>
+    <t>Proposal schreiben</t>
   </si>
 </sst>
 </file>
@@ -41,8 +41,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -75,8 +75,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -84,19 +84,19 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="167" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -110,10 +110,10 @@
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="Datum" dataDxfId="4"/>
-    <tableColumn id="2" name="Anfang " dataDxfId="2"/>
-    <tableColumn id="3" name="Ende" dataDxfId="1"/>
-    <tableColumn id="5" name="Dauer" dataDxfId="0"/>
-    <tableColumn id="4" name="Task" dataDxfId="3"/>
+    <tableColumn id="2" name="Anfang " dataDxfId="3"/>
+    <tableColumn id="3" name="Ende" dataDxfId="2"/>
+    <tableColumn id="5" name="Dauer" dataDxfId="1"/>
+    <tableColumn id="4" name="Task" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -416,7 +416,7 @@
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -438,20 +438,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>39923</v>
+        <v>39836</v>
       </c>
       <c r="B2" s="2">
-        <v>0.35694444444444445</v>
+        <v>0.43472222222222223</v>
       </c>
       <c r="C2" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D2" s="2">
-        <f>(C2-B2)</f>
-        <v>5.9722222222222232E-2</v>
+        <v>0.53263888888888888</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
